--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66908.35150739373</v>
+        <v>13051375.73131068</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66908.35150739373</v>
+        <v>13051375.73131068</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141793.2264812947</v>
+        <v>16267711.56994522</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141793.2264812947</v>
+        <v>16267711.56994522</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493309337.58078</v>
+        <v>43084976.57357559</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16426.55642982008</v>
+        <v>1045399.203695568</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31239.84770246789</v>
+        <v>1870132.434847648</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46298.65742078126</v>
+        <v>2694865.665999727</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60508.44829536689</v>
+        <v>3519212.23801457</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74719.04071902849</v>
+        <v>4343616.713715058</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88929.3778547991</v>
+        <v>5168021.189415609</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102752.4927205254</v>
+        <v>6276404.147043996</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116272.1601264007</v>
+        <v>7324401.060162018</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130564.7150172323</v>
+        <v>8006809.855573202</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144937.2091512888</v>
+        <v>8848402.973092293</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>159147.8015749488</v>
+        <v>9672807.448792955</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>173358.1387107193</v>
+        <v>10497211.92449344</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>187568.4758464902</v>
+        <v>11321616.40019406</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>203411.5555800258</v>
+        <v>11847670.05806771</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>219860.6357162897</v>
+        <v>12176406.34895257</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>200.0000000000389</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>1.892969130305573e-11</v>
@@ -27058,7 +27058,7 @@
         <v>36.99999999995674</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>136.0000000000232</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
